--- a/Experiments/Part1-Uniform-MajorMinor/document-popularity/MajorMinor results/Graphs.xlsx
+++ b/Experiments/Part1-Uniform-MajorMinor/document-popularity/MajorMinor results/Graphs.xlsx
@@ -2884,20 +2884,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2108358712"/>
-        <c:axId val="-2124861592"/>
+        <c:axId val="2108581304"/>
+        <c:axId val="2108552760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2108358712"/>
+        <c:axId val="2108581304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124861592"/>
+        <c:crossAx val="2108552760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2905,18 +2924,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2124861592"/>
+        <c:axId val="2108552760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108358712"/>
+        <c:crossAx val="2108581304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5648,20 +5686,39 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112660136"/>
-        <c:axId val="-2112500520"/>
+        <c:axId val="2056572184"/>
+        <c:axId val="2056575128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112660136"/>
+        <c:axId val="2056572184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112500520"/>
+        <c:crossAx val="2056575128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5669,18 +5726,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112500520"/>
+        <c:axId val="2056575128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Accumulated Payoff</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112660136"/>
+        <c:crossAx val="2056572184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6268,20 +6349,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2102483080"/>
-        <c:axId val="-2102480104"/>
+        <c:axId val="2108341352"/>
+        <c:axId val="2108428312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2102483080"/>
+        <c:axId val="2108341352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102480104"/>
+        <c:crossAx val="2108428312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6289,18 +6394,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102480104"/>
+        <c:axId val="2108428312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Accumulated Payoff</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102483080"/>
+        <c:crossAx val="2108341352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6334,8 +6458,8 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6422,23 +6546,23 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6446,15 +6570,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6782,7 +6906,7 @@
   <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AP29" sqref="AP29"/>
+      <selection activeCell="AO25" sqref="AO25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
